--- a/docs/tablas excel (version 2).xlsx
+++ b/docs/tablas excel (version 2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Escritorio\CEU San Pablo\20-21\Segundo Cuatrimestre\Tratamiento de la Información en Sistemas Distribuidos\Workspace\BasesDatosRestaurante\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\git\restaurante2\restaurante2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22948564-1CCB-41ED-A711-B0D16B8F4FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6966F4-7091-4463-AABF-905010080FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A57DBF19-0EB8-477C-8A9B-FEE33F6BE215}"/>
+    <workbookView xWindow="0" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{A57DBF19-0EB8-477C-8A9B-FEE33F6BE215}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>Pedidos</t>
   </si>
@@ -44,9 +44,6 @@
     <t>fecha</t>
   </si>
   <si>
-    <t>Hora</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -227,18 +224,12 @@
     <t>Valentin</t>
   </si>
   <si>
-    <t>Pedido - Repartidor</t>
-  </si>
-  <si>
     <t>Pedido-Menu</t>
   </si>
   <si>
     <t>27$</t>
   </si>
   <si>
-    <t>id-Empleado</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
@@ -249,6 +240,33 @@
   </si>
   <si>
     <t>Calle Pepito 12</t>
+  </si>
+  <si>
+    <t>usuarios</t>
+  </si>
+  <si>
+    <t>usuario-id</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>contraseña</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>rol-id</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>cliente</t>
   </si>
 </sst>
 </file>
@@ -669,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3914556A-80B6-47D8-98B9-EA7C1BB7DC75}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,10 +702,10 @@
     <col min="5" max="6" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,30 +718,28 @@
       <c r="I1" s="10"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F2" s="3"/>
       <c r="H2" s="10"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -734,19 +750,17 @@
         <v>44481</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.89583333333333337</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -757,194 +771,220 @@
         <v>44278</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.91666666666666663</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="6"/>
       <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="I10" s="2">
         <v>2</v>
       </c>
-      <c r="J10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -952,13 +992,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="2">
@@ -989,7 +1029,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="2">
@@ -1004,13 +1044,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="I21" s="3">
         <v>2</v>
@@ -1024,13 +1064,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
         <v>653213498</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="3">
         <v>2</v>
@@ -1044,13 +1084,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2">
         <v>675432651</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1060,7 +1100,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1070,10 +1110,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1081,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -1092,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
@@ -1103,13 +1143,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2">
         <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1117,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" s="6"/>
     </row>
@@ -1126,19 +1166,19 @@
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="6"/>
     </row>
@@ -1147,16 +1187,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E34" s="2">
         <v>3</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="6"/>
     </row>
@@ -1165,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1176,10 +1216,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1187,10 +1227,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1198,10 +1238,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1209,10 +1249,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1220,10 +1260,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1231,10 +1271,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1242,10 +1282,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1253,10 +1293,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" s="10"/>
     </row>
@@ -1265,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1276,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
